--- a/test/ws_ex_4.9.xlsx
+++ b/test/ws_ex_4.9.xlsx
@@ -9,10 +9,12 @@
   <sheets>
     <sheet name="Serie Id-67GH89BG" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-34AE56JH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Serie Id-56TY87JG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FILTER Id-221A61C2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-F4A075D0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="INTERPOLATION Id-8975C36E" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Serie Id-A8396D01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Serie Id-D4DB0D6D" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie Id-56TY87JG" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FILTER Id-221A61C2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Serie Id-F4A075D0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="INTERPOLATION Id-149D7DB0" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6740,6 +6742,7499 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="151" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d13Cforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>InterpolationMode</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>X1Coords</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>X2Coords</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-976.349660924766</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie interpolated</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#2ca02c</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; interpolated with INTERPOLATION &lt;i&gt;&lt;b&gt;Id-149D7DB0&lt;/i&gt;&lt;/b&gt; with mode Linear&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-A8396D01&lt;/b&gt;&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Linear</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>-764.9006622516557</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742.6278145695364</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-973.4752590263435</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-410.6673673152093</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1975</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-970.3134169380787</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41.28035320088293</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2440.095364238411</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-965.4269337107603</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-962.5525318123377</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-958.5283691545462</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-952.7795653577011</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-947.030761560856</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-944.4437998522758</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-941.5693979538532</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L11" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-938.4075558655884</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-935.2457137773237</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-932.0838716890588</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L14" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-925.1853071328447</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-922.5983454242644</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L16" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-915.9872210578926</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-911.9630584001011</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-908.5137761219939</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-906.7891349829405</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L20" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-904.7770536540447</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L21" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-900.4654508064109</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L22" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-899.3156900470418</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L23" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-897.8784890978305</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-895.2915273892503</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L25" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-894.4292068197235</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L26" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-893.2794460603545</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-890.405044161932</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L28" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-887.8180824533516</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L29" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-885.2311207447714</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L30" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-882.644159036191</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-879.4823169479263</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L32" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-876.3204748596614</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-873.1586327713967</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L34" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-869.9967906831318</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L35" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-866.8349485948671</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L36" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-863.9605466964446</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L37" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-861.086144798022</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L38" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-858.2117428995995</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-855.3373410011769</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-852.7503792925966</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L41" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-849.875977394174</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="L42" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-847.2890156855938</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L43" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-844.1271735973289</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L44" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-841.2527716989064</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L45" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-838.0909296106416</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L46" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-835.2165277122191</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="L47" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-832.3421258137965</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L48" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-829.467723915374</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L49" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-826.5933220169514</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L50" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-823.7189201185289</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.395</v>
+      </c>
+      <c r="L51" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-820.8445182201064</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L52" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-817.9701163216838</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.305</v>
+      </c>
+      <c r="L53" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-815.0957144232613</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L54" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-812.2213125248387</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L55" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-809.059470436574</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.325</v>
+      </c>
+      <c r="L56" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-806.1850685381514</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L57" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-803.5981068295711</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L58" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-800.7237049311485</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L59" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-797.849303032726</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L60" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-794.9749011343034</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="L61" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-792.3879394257232</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="L62" t="n">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-789.5135375273006</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L63" t="n">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-786.6391356288781</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L64" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-783.7647337304555</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-780.6028916421908</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.0433</v>
+      </c>
+      <c r="L66" t="n">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-777.7284897437683</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L67" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-774.8540878453457</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L68" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-771.9796859469232</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L69" t="n">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-769.1052840485006</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L70" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-766.5183223399202</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L71" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-763.6439204414977</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="L72" t="n">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-761.0569587329175</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.505</v>
+      </c>
+      <c r="L73" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-760.7695185430752</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="L74" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-758.1825568344949</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L75" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-754.7332745563879</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L76" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-750.9965520884385</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L77" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-747.5472698103315</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L78" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-744.672867911909</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L79" t="n">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-741.5110258236441</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-738.3491837353794</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L81" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-734.3250210775877</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L82" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-730.8757387994807</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="L83" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-728.0013369010582</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.535</v>
+      </c>
+      <c r="L84" t="n">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-725.7018153823201</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L85" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-722.8274134838975</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L86" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-721.1027723448441</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L87" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-718.2283704464215</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L88" t="n">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-715.0665283581567</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-711.904686269892</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="L90" t="n">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-709.0302843714694</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L91" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-705.8684422832046</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L92" t="n">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-702.4191600050975</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L93" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-698.9698777269905</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L94" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-696.0954758285679</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L95" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-693.7959543098299</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L96" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-692.0713131707764</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.1133</v>
+      </c>
+      <c r="L97" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-690.0592318418805</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-687.4722701333003</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-683.4481074755088</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-679.136504627875</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-675.9746625396101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-673.9625812107143</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-669.3635381732382</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-665.0519353256045</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-660.7403324779707</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-657.2910501998635</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-656.7161698201791</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.335</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-654.9915286811256</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-651.5422464030185</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-650.6799258334918</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-648.9552846944382</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-648.6678445045959</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-645.5060024163312</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-641.4818397585395</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-638.607437860117</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-635.7330359616944</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-632.5711938734297</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-629.9842321648493</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-627.1098302664269</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-624.2354283680044</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-618.4866245711593</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-615.6122226727367</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-612.7378207743142</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-602.9648543196774</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-596.6411701431479</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-588.0179644478803</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-586.2933233088268</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-584.8561223596155</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-581.4068400815084</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-579.3947587526127</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-577.3826774237168</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-575.0831559049789</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-571.921313816714</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-565.5976296401844</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-563.2981081214464</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-560.7111464128661</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-557.5493043246013</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-554.3874622363364</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-550.9381799582295</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-547.7763378699647</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.3166</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-542.0275340731196</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-539.4405723645393</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-536.5661704661168</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-533.6917685676942</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-530.8173666692717</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-527.9429647708491</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-525.0685628724266</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-522.194160974004</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-519.3197590755815</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-516.4453571771589</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-513.5709552787364</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-507.8221514818913</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-504.9477495834687</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-502.0733476850462</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-499.1989457866237</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-496.3245438882011</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-493.4501419897786</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-490.575740091356</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-487.7013381929335</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-484.8269362945109</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-479.0781324976658</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-476.2037305992433</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-473.3293287008207</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-470.4549268023982</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-467.5805249039756</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-464.7061230055531</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-461.8317211071306</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-458.957319208708</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-456.0829173102855</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-453.2085154118629</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-450.3341135134404</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-447.4597116150179</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-444.5853097165953</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-441.7109078181728</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-435.9621040213277</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-433.0877021229051</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-431.3630609838516</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-430.2133002244826</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-427.9137787057446</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-424.4644964276375</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-421.3026543393727</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-418.4282524409501</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-415.8412907323698</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-413.2543290237896</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-410.6673673152093</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-400.9500543667959</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-391.2327414183827</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-380.543697175128</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-369.8546529318733</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-359.1656086886187</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-349.4482957402054</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-340.7027140866334</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-332.9288637279027</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-325.155013369172</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-318.3528943052827</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-317.3811630104414</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-310.5790439465521</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-303.7769248826627</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-296.9748058187734</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-289.2009554600428</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-273.6532547425815</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-266.8511356786921</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>-265.8794043838508</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>-257.1338227302788</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>-249.3599723715481</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>-248.3882410767068</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>-240.6143907179762</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>-231.8688090644042</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>-224.0949587056735</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>-216.3211083469429</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.445</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>-207.5755266933708</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>-198.8299450397989</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.475</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>-189.1126320913855</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>-179.3953191429722</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>-168.7062748997176</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>-158.0172306564629</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>-147.3281864132082</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>-136.6391421699536</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>-126.9218292215403</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>-118.1762475679683</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>-109.4306659143963</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>-100.6850842608243</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>-91.93950260725234</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>-83.19392095368033</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>-73.476608005267</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>-61.81583246717105</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>-49.18332563423371</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>-35.5790875064551</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>-21.97484937867642</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-9.342342545739086</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.325</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1.346701697515527</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>12.0357459407702</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>21.75305888918354</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>31.47037183759687</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.2166</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>41.18768478601015</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>50.90499773442349</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>61.59404197767816</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>72.28308622093277</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>83.94386175902878</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>94.63290600228345</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>105.3219502455381</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>113.0958006042688</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>116.0109944887928</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>125.728307437206</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>135.4456203856193</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.595</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>140.304276859826</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>144.1912020391914</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>150.0215898082394</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>159.7389027566527</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>168.4844844102247</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>180.1452599483207</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>188.8908416018927</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>198.6081545503059</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>208.3254674987193</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>218.0427804471326</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="L256" t="n">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>227.7600933955459</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="L257" t="n">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>247.1947192923726</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>256.9120322407859</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L259" t="n">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>268.5728077788818</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="L260" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>270.5162703685645</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>275.3749268427712</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L262" t="n">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>280.2335833169778</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L263" t="n">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>289.9508962653912</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>299.6682092138045</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L265" t="n">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>319.1028351106312</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>328.8201480590445</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>338.5374610074578</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L268" t="n">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>348.2547739558711</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>357.9720869042844</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L270" t="n">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>367.6893998526978</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L271" t="n">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>377.4067128011111</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>387.1240257495244</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>396.8413386979378</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>405.5869203515098</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>416.2759645947643</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>426.965008838019</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L277" t="n">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>436.6823217864323</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>445.4279034400043</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>455.1452163884177</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>463.8907980419897</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L281" t="n">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>473.608110990403</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>484.2971552336576</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>494.0144681820709</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="L284" t="n">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>503.7317811304843</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>512.4773627840563</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>523.1664070273109</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L287" t="n">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>539.6858390396136</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>542.6010329241376</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="L289" t="n">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>554.2618084622335</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L290" t="n">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>564.9508527054882</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>574.6681656539015</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>584.3854786023148</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>595.0745228455695</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L294" t="n">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>605.7635670888242</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L295" t="n">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>615.4808800372375</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L296" t="n">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>624.2264616908094</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="L297" t="n">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>631.0285807546989</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L298" t="n">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>638.8024311134295</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="L299" t="n">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>648.5197440618429</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.275</v>
+      </c>
+      <c r="L300" t="n">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>660.1805195999386</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.355</v>
+      </c>
+      <c r="L301" t="n">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>672.8130264328761</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="L302" t="n">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>685.4455332658133</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L303" t="n">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>705.8518904574814</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L304" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>715.5692034058948</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="L305" t="n">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>726.2582476491493</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L306" t="n">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>736.9472918924039</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L307" t="n">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>747.6363361356587</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="L308" t="n">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>757.353649084072</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L309" t="n">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>768.0426933273266</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L310" t="n">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>778.7317375705813</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L311" t="n">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>791.3642444035186</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L312" t="n">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>803.0250199416146</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="L313" t="n">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>812.7423328900279</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="L314" t="n">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>819.5444519539171</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L315" t="n">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>825.3748397229651</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L316" t="n">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>830.2334961971719</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L317" t="n">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>836.0638839662199</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L318" t="n">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>839.9508091455853</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L319" t="n">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>846.7529282094745</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L320" t="n">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>855.4985098630466</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="L321" t="n">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>867.1592854011426</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="L322" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>883.6787174134452</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L323" t="n">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>904.085074605113</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.295</v>
+      </c>
+      <c r="L324" t="n">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>919.6327753225744</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="L325" t="n">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>928.3783569761465</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L326" t="n">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>936.1522073348772</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="L327" t="n">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>941.982595103925</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L328" t="n">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>947.812982872973</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.385</v>
+      </c>
+      <c r="L329" t="n">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>954.6151019368624</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.215</v>
+      </c>
+      <c r="L330" t="n">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>962.3889522955931</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="L331" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>973.0779965388476</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L332" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>988.625697256309</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L333" t="n">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1010.003785742818</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1035.268799408693</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L335" t="n">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1049.844768831313</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L336" t="n">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1056.646887895202</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L337" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1060.533813074568</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.475</v>
+      </c>
+      <c r="L338" t="n">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1064.420738253933</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.545</v>
+      </c>
+      <c r="L339" t="n">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1068.307663433298</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="L340" t="n">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1072.194588612664</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="L341" t="n">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1077.05324508687</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L342" t="n">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1083.855364150759</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.465</v>
+      </c>
+      <c r="L343" t="n">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1097.459602278538</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L344" t="n">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1114.950765585682</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L345" t="n">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1129.526735008302</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.225</v>
+      </c>
+      <c r="L346" t="n">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1140.215779251557</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L347" t="n">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1147.017898315446</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L348" t="n">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1154.791748674177</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L349" t="n">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1161.593867738066</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L350" t="n">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1169.367718096797</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="L351" t="n">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1179.08503104521</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L352" t="n">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1189.774075288465</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.235</v>
+      </c>
+      <c r="L353" t="n">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1202.406582121402</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1217.954282838863</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="L355" t="n">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1218.926014133705</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.425</v>
+      </c>
+      <c r="L356" t="n">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1240.304102620214</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L357" t="n">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1250.993146863469</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L358" t="n">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1261.682191106723</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L359" t="n">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1273.342966644819</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L360" t="n">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1285.003742182915</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L361" t="n">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1293.749323836487</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L362" t="n">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1302.494905490059</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L363" t="n">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1311.240487143631</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L364" t="n">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1318.042606207521</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L365" t="n">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>1324.84472527141</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L366" t="n">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1330.675113040458</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L367" t="n">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1336.505500809506</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="L368" t="n">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>1343.307619873395</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="L369" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>1352.053201526967</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="L370" t="n">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1366.629170949587</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="L371" t="n">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1384.120334256731</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L372" t="n">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1397.72457238451</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="L373" t="n">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1407.441885332923</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L374" t="n">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1417.159198281337</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L375" t="n">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>1425.904779934908</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L376" t="n">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1434.650361588481</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L377" t="n">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1442.424211947211</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L378" t="n">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1450.198062305942</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L379" t="n">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1457.971912664672</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L380" t="n">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1467.689225613086</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="L381" t="n">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1474.491344676975</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="L382" t="n">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1477.406538561499</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L383" t="n">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1481.293463740864</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="L384" t="n">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1487.123851509912</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L385" t="n">
+        <v>3928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H381"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="155" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d13Cforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01199999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie filtered</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#9edae5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-221A61C2&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-D4DB0D6D&lt;/b&gt;&lt;/i&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.082</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>69</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>109</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>118</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>128</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>139</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>150</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>161</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.03200000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>185</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>194</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.062</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>217</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002000000000000002</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>231</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>243</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>249</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>256</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>271</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>275</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>280</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>289</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>292</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>296</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>306</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>315</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.08399999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>324</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06000000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>333</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>344</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>355</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>366</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>377</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>388</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01599999999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>398</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>408</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.174</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>418</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.234</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>428</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>437</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>447</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>456</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>467</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>477</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>488</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.324</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>498</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>508</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>518</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>528</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.3150000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>538</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.298</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>548</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>558</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>568</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.266</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>578</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.322</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>589</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.345</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>599</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>608</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.367</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>618</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.329</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>628</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>638</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.166</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>647</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>657</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.05300000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>667</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.03466</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>677</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.01166</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>688</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.01766</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>698</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.01766</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>708</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.04666</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>718</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.082</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>728</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.185</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>737</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.278</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>747</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.344</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>756</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.336</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>757</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.314</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>766</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.203</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>778</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.134</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>791</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.114</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>803</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.176</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>813</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>824</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.296</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>835</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>849</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.405</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>861</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.369</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>871</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.387</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>879</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.4470000000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>889</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.441</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>895</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.374</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>905</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.329</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>916</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.319</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>927</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.261</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>937</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.219</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>948</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.237</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>960</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.264</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>972</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>982</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.15466</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>990</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.10266</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>996</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.03266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.03534</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.07334</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.08299999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.06199999999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.052</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.126</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.175</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.235</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.243</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.253</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.305</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.281</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.296</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.3139999999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.304</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.238</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.217</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.203</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.134</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.094</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.08700000000000002</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.08499999999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.03399999999999997</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.124</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.233</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.3749999999999999</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.341</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.335</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.263</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.278</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.238</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.224</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.204</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.09399999999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.0006800000000000029</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.19532</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.3133199999999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.41132</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.4003200000000001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.3689999999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.005999999999999994</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.074</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.174</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.117</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.089</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.06699999999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.045</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.02867999999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.02132</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.03668</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.02467999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.06667999999999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.148</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.206</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.146</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.124</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.009999999999999998</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-5.551115123125783e-18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.074</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.138</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.258</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.234</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.246</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.272</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.294</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.346</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.462</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.5660000000000001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.604</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.552</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.468</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.244</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.05999999999999998</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.01600000000000001</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.004000000000000001</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.011</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.093</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.195</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.212</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.204</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.184</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.202</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.285</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.353</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.402</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.4359999999999999</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.412</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.364</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.274</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.161</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.101</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-0.254</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.378</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.456</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.4699999999999999</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.449</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.387</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.3169999999999999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.2479999999999999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.269</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.285</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.275</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.3190000000000001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.322</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.28432</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.24432</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.29632</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.31032</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.31232</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.399</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.514</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.534</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.5980000000000001</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.6180000000000001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.538</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.517</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.529</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.459</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.4869999999999999</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.5049999999999999</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.484</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.5780000000000001</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.6900000000000001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.736</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2612</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.758</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.6880000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2652</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.612</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.5580000000000001</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2674</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.4320000000000001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.3159999999999999</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.198</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.168</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2706</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2726</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-0.314</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2736</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.356</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2746</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.3079999999999999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2756</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.226</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2766</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.178</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.198</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.238</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.206</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.132</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.066</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.012</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-0.024</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2916</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.278</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2953</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.422</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2956</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.418</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2968</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2979</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.268</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2989</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.157</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2999</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.05299999999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-0.03300000000000001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.144</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.172</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.195</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.212</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.229</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-0.268</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.333</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.351</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.357</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.3370000000000001</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.277</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.241</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.184</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.08800000000000001</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3234</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.004000000000000001</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3241</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.03199999999999999</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.04099999999999999</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.111</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.221</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3328</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.3059999999999999</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.333</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.327</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3361</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.345</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3367</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3373</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.289</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3380</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.161</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3388</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.06499999999999999</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3399</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.03200000000000001</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3463</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.02000000000000001</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3478</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.159</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.288</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3489</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.448</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3493</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.5359999999999999</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3497</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.4980000000000001</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3506</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.401</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.305</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.232</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.196</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3560</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.111</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3578</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.083</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3593</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.08499999999999999</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3611</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.164</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3622</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.222</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3635</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.288</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3651</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.354</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3652</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.3230000000000001</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3674</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.253</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3685</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.165</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3696</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.068</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3708</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3720</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.005999999999999994</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3729</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.032</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3738</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.044</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3747</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.08800000000000001</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3754</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.144</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3761</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3767</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.276</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3773</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3780</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.424</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3789</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.464</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.416</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3822</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.286</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3836</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3846</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.01199999999999999</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3856</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.07599999999999998</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3865</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3874</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.07799999999999999</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3882</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.01399999999999998</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-0.092</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3898</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.176</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3908</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3915</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.292</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3918</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9897,7 +17392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9969,7 +17464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26068,13 +33563,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26151,9 +33646,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>-410.6673673152093</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>41.28035320088293</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>2440.095364238411</v>
       </c>
     </row>

--- a/test/ws_ex_4.9.xlsx
+++ b/test/ws_ex_4.9.xlsx
@@ -11178,11 +11178,11 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#9edae5</t>
+          <t>#44bae5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
